--- a/绩效盘点/2021/附件1：绩效盘点表.xlsx
+++ b/绩效盘点/2021/附件1：绩效盘点表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\归档\绩效盘点\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7EE09F-6638-4383-B165-B1CFFD9618E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F42586C-EB7F-4578-AD61-B91DF8B72380}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>思谋集团 2021年绩效盘点表</t>
   </si>
@@ -181,18 +181,6 @@
   </si>
   <si>
     <t>部门负责人评价</t>
-  </si>
-  <si>
-    <t>（例）推出一个很棒的最小化可行产品</t>
-  </si>
-  <si>
-    <t>40%的用户在一周·以内访问量增加两倍</t>
-  </si>
-  <si>
-    <t>净推荐值达到8分</t>
-  </si>
-  <si>
-    <t>15%的转化率</t>
   </si>
   <si>
     <t>三、核心价值观自评：</t>
@@ -398,14 +386,49 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>1.大幅面三坐标测量仪已经在中富现场迭代升级，产品完成90%。(该类型产品售价80w左右,后续可以配合AVI设备一起售卖)
-2.无锡深南PCB放板机中标66台(总计:1700w)。
-3.世运项目验收完成。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>1.POC结果已经发给惠科革新部门，预计本年度签单10台(总计:180w)
 2.完成公司首个面板检测项目</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.大幅面三坐标测量仪已经在中富现场迭代升级，产品完成90%。(该类型产品售价80w左右,后续可以配合AVI设备一起售卖)
+2.无锡深南PCB放板机（中标66台，总计:1700w)。
+3.世运项目验收完成(中标32台，总计:309W)。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>大幅面三坐标测量设备</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.形成标准设备并部署到江门中富升级迭代。
+2.飞扬有10台左右订单需求。
+2.深南(广州)有2台订单需求。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.产品整机硬件验证完成。(大理石平台重复精度，轴重复精度都能满足出机指标)
+2.光学系统验证完成。(针对高中低三类型客户，光学分别验证了进口相机、国产相机静态和动态重复精度都能满足出机标准)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件系统完成90%迭代</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.UI界面80%对齐中图软件。
+2.GUI交互具备基本功能。
+3.标定、运控、自动对焦、测量、标注、逻辑功能、数据统计完成90%。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>精度高、检测范围大、测试速度快</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.精度最高可达到:（3.0+/-L/200）um。
+2.检测范围（L）:720mm+
+3.测试速度:90s完成全画幅检测（720mm*640mm）。</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -983,7 +1006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,6 +1106,233 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1107,10 +1357,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1124,229 +1370,22 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1445,7 +1484,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1935,10 +1974,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="5429250" y="10868025"/>
+              <a:off x="5429250" y="13154025"/>
               <a:ext cx="5110500" cy="0"/>
-              <a:chOff x="5681663" y="0"/>
-              <a:chExt cx="4605674" cy="9705975"/>
+              <a:chOff x="5501520" y="0"/>
+              <a:chExt cx="4785817" cy="10868025"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -1957,7 +1996,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5681663" y="9705975"/>
+                <a:off x="5681663" y="10868025"/>
                 <a:ext cx="4605674" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2019,7 +2058,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5723320" y="9705975"/>
+                <a:off x="5501520" y="10868025"/>
                 <a:ext cx="475267" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2085,7 +2124,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6568752" y="9705975"/>
+                <a:off x="6439619" y="10868025"/>
                 <a:ext cx="475267" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2151,7 +2190,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="7465735" y="9705975"/>
+                <a:off x="7434920" y="10868025"/>
                 <a:ext cx="475267" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2217,7 +2256,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="8331787" y="9705975"/>
+                <a:off x="8395899" y="10868025"/>
                 <a:ext cx="475267" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2792,10 +2831,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="5429250" y="10868025"/>
+              <a:off x="5429250" y="13154025"/>
               <a:ext cx="5110500" cy="0"/>
-              <a:chOff x="5681663" y="0"/>
-              <a:chExt cx="4605674" cy="9705975"/>
+              <a:chOff x="5501520" y="0"/>
+              <a:chExt cx="4785817" cy="10868025"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2814,7 +2853,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5681663" y="9705975"/>
+                <a:off x="5681663" y="10868025"/>
                 <a:ext cx="4605674" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2876,7 +2915,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5723320" y="9705975"/>
+                <a:off x="5501520" y="10868025"/>
                 <a:ext cx="475267" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2942,7 +2981,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6568752" y="9705975"/>
+                <a:off x="6439619" y="10868025"/>
                 <a:ext cx="475267" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3008,7 +3047,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="7465735" y="9705975"/>
+                <a:off x="7434920" y="10868025"/>
                 <a:ext cx="475267" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3074,7 +3113,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="8331787" y="9705975"/>
+                <a:off x="8395899" y="10868025"/>
                 <a:ext cx="475267" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3649,10 +3688,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="5429250" y="10868025"/>
+              <a:off x="5429250" y="13154025"/>
               <a:ext cx="5710575" cy="0"/>
-              <a:chOff x="5557083" y="0"/>
-              <a:chExt cx="5030292" cy="9705975"/>
+              <a:chOff x="5461387" y="0"/>
+              <a:chExt cx="5367009" cy="10868025"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -3671,7 +3710,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5981700" y="9705975"/>
+                <a:off x="6222721" y="10868025"/>
                 <a:ext cx="4605675" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3733,7 +3772,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5557083" y="9705975"/>
+                <a:off x="5461387" y="10868025"/>
                 <a:ext cx="475267" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3799,7 +3838,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6597320" y="9705975"/>
+                <a:off x="6642304" y="10868025"/>
                 <a:ext cx="475267" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3865,7 +3904,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="7700988" y="9705975"/>
+                <a:off x="7895229" y="10868025"/>
                 <a:ext cx="475267" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3931,7 +3970,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="8766598" y="9705975"/>
+                <a:off x="9104949" y="10868025"/>
                 <a:ext cx="475267" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -4316,8 +4355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21:S21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
@@ -4341,130 +4380,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="88"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="28"/>
     </row>
     <row r="2" spans="1:23" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="91" t="s">
+      <c r="H2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="91"/>
-      <c r="L2" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="94"/>
-      <c r="P2" s="95">
+      <c r="O2" s="34"/>
+      <c r="P2" s="35">
         <v>44224</v>
       </c>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="94" t="s">
+      <c r="Q2" s="35"/>
+      <c r="R2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="90"/>
-      <c r="W2" s="96"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="30"/>
+      <c r="W2" s="36"/>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A3" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="67"/>
+      <c r="A3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="39"/>
     </row>
     <row r="4" spans="1:23" ht="33" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83" t="s">
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
@@ -4480,227 +4519,237 @@
       <c r="T4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="84"/>
-      <c r="W4" s="85"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="42"/>
     </row>
-    <row r="5" spans="1:23" ht="84.75" customHeight="1">
+    <row r="5" spans="1:23" ht="145.5" customHeight="1">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
+      <c r="B5" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="H5" s="74" t="s">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
       <c r="P5" s="19">
         <v>44538</v>
       </c>
       <c r="Q5" s="23">
         <v>10</v>
       </c>
-      <c r="R5" s="24"/>
+      <c r="R5" s="24">
+        <v>4</v>
+      </c>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="76"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" ht="69.75" customHeight="1">
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="17">
         <v>0.2</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
       <c r="P6" s="19">
         <v>44538</v>
       </c>
       <c r="Q6" s="23">
         <v>10</v>
       </c>
-      <c r="R6" s="24"/>
+      <c r="R6" s="24">
+        <v>2</v>
+      </c>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="76"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="46"/>
     </row>
     <row r="7" spans="1:23" ht="42.95" customHeight="1">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="17">
         <v>0.1</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
       <c r="P7" s="19">
         <v>44538</v>
       </c>
       <c r="Q7" s="23">
         <v>9</v>
       </c>
-      <c r="R7" s="24"/>
+      <c r="R7" s="24">
+        <v>0.9</v>
+      </c>
       <c r="S7" s="24"/>
       <c r="T7" s="24"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="76"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="46"/>
     </row>
     <row r="8" spans="1:23" ht="42.95" customHeight="1">
       <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
       <c r="P8" s="19">
         <v>44540</v>
       </c>
       <c r="Q8" s="23">
         <v>10</v>
       </c>
-      <c r="R8" s="24"/>
+      <c r="R8" s="24">
+        <v>1</v>
+      </c>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="76"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="46"/>
     </row>
     <row r="9" spans="1:23" ht="65.25" customHeight="1">
       <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
+      <c r="B9" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="17">
         <v>0.2</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
       <c r="P9" s="19">
         <v>44538</v>
       </c>
       <c r="Q9" s="23">
         <v>9</v>
       </c>
-      <c r="R9" s="24"/>
+      <c r="R9" s="24">
+        <v>1.8</v>
+      </c>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="76"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="46"/>
     </row>
     <row r="10" spans="1:23" s="3" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="18">
         <f>IF(SUM(G5:G9)&gt;100%,"超出权重",IF(SUM(G5:G9)&lt;100%,"未满权重",SUM(G5:G9)))</f>
         <v>1</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
       <c r="R10" s="25">
         <f>IF(SUM(R5:R9)&gt;10,"超出总分值",SUM(R5:R9))</f>
-        <v>0</v>
+        <v>9.7000000000000011</v>
       </c>
       <c r="S10" s="25">
         <f t="shared" ref="S10:T10" si="0">IF(SUM(S5:S9)&gt;10,"超出总分值",SUM(S5:S9))</f>
@@ -4710,491 +4759,497 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="79"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="52"/>
     </row>
     <row r="11" spans="1:23" ht="36" customHeight="1">
-      <c r="A11" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="64"/>
+      <c r="A11" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="55"/>
     </row>
     <row r="12" spans="1:23" ht="24" customHeight="1">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="67"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="39"/>
     </row>
     <row r="13" spans="1:23" s="4" customFormat="1" ht="32.1" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68" t="s">
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="69" t="s">
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="T13" s="70"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="69" t="s">
+      <c r="T13" s="58"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="W13" s="72"/>
+      <c r="W13" s="60"/>
     </row>
-    <row r="14" spans="1:23" s="4" customFormat="1" ht="32.1" customHeight="1">
+    <row r="14" spans="1:23" s="4" customFormat="1" ht="81" customHeight="1">
       <c r="A14" s="10">
         <v>1</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="58"/>
+      <c r="B14" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="66"/>
     </row>
-    <row r="15" spans="1:23" s="4" customFormat="1" ht="32.1" customHeight="1">
+    <row r="15" spans="1:23" s="4" customFormat="1" ht="69.75" customHeight="1">
       <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="58"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="66"/>
     </row>
-    <row r="16" spans="1:23" s="4" customFormat="1" ht="32.1" customHeight="1">
+    <row r="16" spans="1:23" s="4" customFormat="1" ht="63" customHeight="1">
       <c r="A16" s="10">
         <v>3</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="58"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="66"/>
     </row>
     <row r="17" spans="1:23" ht="15.95" customHeight="1">
-      <c r="A17" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="61"/>
+      <c r="A17" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="69"/>
     </row>
     <row r="18" spans="1:23" ht="26.1" customHeight="1">
-      <c r="A18" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="44"/>
+      <c r="A18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="72"/>
     </row>
     <row r="19" spans="1:23" ht="26.1" customHeight="1">
-      <c r="A19" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="47"/>
+      <c r="A19" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="75"/>
     </row>
     <row r="20" spans="1:23" ht="26.1" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="W20" s="53"/>
+      <c r="W20" s="81"/>
     </row>
     <row r="21" spans="1:23" ht="26.1" customHeight="1">
       <c r="A21" s="12">
         <v>1</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="38">
+      <c r="B21" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="82">
         <v>10</v>
       </c>
-      <c r="S21" s="39"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="41"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="85"/>
     </row>
     <row r="22" spans="1:23" ht="26.1" customHeight="1">
       <c r="A22" s="12">
         <v>2</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="38">
+      <c r="B22" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="82">
         <v>10</v>
       </c>
-      <c r="S22" s="39"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="41"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="85"/>
     </row>
     <row r="23" spans="1:23" ht="26.1" customHeight="1">
       <c r="A23" s="12">
         <v>3</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="38">
+      <c r="B23" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="82">
         <v>10</v>
       </c>
-      <c r="S23" s="39"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="41"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="85"/>
     </row>
     <row r="24" spans="1:23" ht="26.1" customHeight="1">
       <c r="A24" s="12">
         <v>4</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="38">
+      <c r="B24" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="82">
         <v>10</v>
       </c>
-      <c r="S24" s="39"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="41"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="85"/>
     </row>
     <row r="25" spans="1:23" ht="32.1" customHeight="1">
-      <c r="A25" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="28"/>
+      <c r="A25" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="89"/>
     </row>
     <row r="26" spans="1:23" ht="32.1" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="31"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="91"/>
+      <c r="T26" s="91"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="91"/>
+      <c r="W26" s="92"/>
     </row>
     <row r="27" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="13"/>
@@ -5299,77 +5354,6 @@
     <protectedRange sqref="T10" name="员工可编辑_9" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="87">
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="H10:Q10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="A11:W11"/>
-    <mergeCell ref="A12:W12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="A17:W17"/>
-    <mergeCell ref="A18:W18"/>
-    <mergeCell ref="A19:W19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
     <mergeCell ref="A25:W25"/>
     <mergeCell ref="A26:W26"/>
     <mergeCell ref="B14:G16"/>
@@ -5386,6 +5370,77 @@
     <mergeCell ref="V23:W23"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="A18:W18"/>
+    <mergeCell ref="A19:W19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="A17:W17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="A11:W11"/>
+    <mergeCell ref="A12:W12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="H10:Q10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G10">
@@ -5431,7 +5486,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>200025</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5453,13 +5508,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5475,13 +5530,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>381000</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5496,14 +5551,14 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>14</xdr:col>
-                    <xdr:colOff>428625</xdr:colOff>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:colOff>590550</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5519,13 +5574,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>16</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:colOff>171450</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5541,13 +5596,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>16</xdr:col>
-                    <xdr:colOff>342900</xdr:colOff>
+                    <xdr:colOff>419100</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:colOff>352425</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5563,7 +5618,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>200025</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5585,13 +5640,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5607,13 +5662,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>381000</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5628,14 +5683,14 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>14</xdr:col>
-                    <xdr:colOff>428625</xdr:colOff>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:colOff>590550</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5651,13 +5706,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>16</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:colOff>171450</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5673,13 +5728,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>16</xdr:col>
-                    <xdr:colOff>342900</xdr:colOff>
+                    <xdr:colOff>419100</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:colOff>352425</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5694,8 +5749,8 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5723,7 +5778,7 @@
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5739,13 +5794,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>209550</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5761,13 +5816,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
+                    <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>16</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:colOff>238125</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5783,13 +5838,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:colOff>447675</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>18</xdr:col>
-                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:colOff>447675</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5805,13 +5860,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>16</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>447675</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>18</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:col>17</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
